--- a/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200519.xlsx
+++ b/data/unchecked/manual_collect/china/hubei/hubeiCaseStatistics_20200519.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\hubei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5979A3AD-C79C-4D49-8EAA-397836B7266E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B627FDD-27E5-4198-8EB4-39C046AC7B49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8050" yWindow="890" windowWidth="16920" windowHeight="12130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -791,9 +791,6 @@
       <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
       <c r="P2">
         <v>50340</v>
       </c>
@@ -2013,9 +2010,6 @@
       </c>
       <c r="F21" t="s">
         <v>48</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
